--- a/biology/Zoologie/Ephestia_kuehniella/Ephestia_kuehniella.xlsx
+++ b/biology/Zoologie/Ephestia_kuehniella/Ephestia_kuehniella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrale de la farine, Teigne de la farine, Papillon gris de la farine, Pyrale de Kühn
 Ephestia kuehniella, couramment appelée la Pyrale de la farine, la Teigne de la farine, le Papillon gris de la farine ou la Pyrale de Kühn, est une espèce de lépidoptères (papillons) de la famille des Pyralidae.
 C'est une « mite alimentaire », dont les chenilles s'attaquent essentiellement à la farine, aux grains de céréales (blé, maïs, riz), à la semoule, aux flocons d'avoine, au muesli, aux biscuits, pâtes alimentaires et même au chocolat, plus rarement aux fruits desséchés (raisins, figues, abricots). Elles sont capables de percer un emballage peu épais.
-Elles infestent également les céréales entreposées en vrac, mais seulement les couches superficielles[1].
+Elles infestent également les céréales entreposées en vrac, mais seulement les couches superficielles.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago (insecte adulte) a une petite tête globuleuse et fait 20 à 25 mm d'envergure. Les ailes antérieures sont grisâtres et satinées, avec des points noirs, les ailes postérieures, finement frangées, sont blanchâtres. 
 			Dessus d'un imago femelle.
@@ -549,7 +563,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La durée totale du cycle biologique varie de 25 à 30 jours. 
 La ponte – 200 à 300 œufs blancs et de forme elliptique – débute juste après l'accouplement. 
@@ -558,8 +574,8 @@
 			Accouplement.
 			Chenille.
 Dans les lieux chauffés, faute d'hibernation ou de vie ralentie, il peut naître 3 à 6 générations par an, voire davantage.
-Cet insecte, très facile à élever en laboratoire sur de la semoule de blé dur, a servi à produire des œufs pour des élevages expérimentaux[2] de plusieurs insectes oviphages, tels que l'Anthocoridae Orius niger.
-La lutte biologique utilise des pièges à phéromones et des parasitoïdes tels que les trichogrammes (hyménoptères) qui éliminent les mites en les parasitant. Notamment, Trichogramma evanescens (en) pond dans les œufs d'Ephestia kuehniella, et Habrobracon hebetor (en) paralyse la larve d'une piqûre avant d'y pondre[3].
+Cet insecte, très facile à élever en laboratoire sur de la semoule de blé dur, a servi à produire des œufs pour des élevages expérimentaux de plusieurs insectes oviphages, tels que l'Anthocoridae Orius niger.
+La lutte biologique utilise des pièges à phéromones et des parasitoïdes tels que les trichogrammes (hyménoptères) qui éliminent les mites en les parasitant. Notamment, Trichogramma evanescens (en) pond dans les œufs d'Ephestia kuehniella, et Habrobracon hebetor (en) paralyse la larve d'une piqûre avant d'y pondre.
 </t>
         </is>
       </c>
